--- a/AllFiles/Mtr_10001528_Hist.xlsx
+++ b/AllFiles/Mtr_10001528_Hist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek_Gupta3\Downloads\TestDataDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABE250-55E2-45D6-8FF4-BC22D83B793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D25241-BC1B-48F6-8140-8D1705713EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,7 +284,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +309,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -358,6 +388,41 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,12 +764,17 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="19" style="9"/>
     <col min="4" max="4" width="19" style="6"/>
+    <col min="5" max="5" width="19" style="15"/>
+    <col min="6" max="6" width="19" style="18"/>
+    <col min="7" max="7" width="19" style="12"/>
+    <col min="8" max="8" width="19" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -714,22 +784,22 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -743,22 +813,22 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -772,22 +842,22 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -801,22 +871,22 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -830,22 +900,22 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="20" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -859,22 +929,22 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="20" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -888,22 +958,22 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="20" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -917,22 +987,22 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="20" t="s">
         <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -946,22 +1016,22 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="20" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -975,22 +1045,22 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="20" t="s">
         <v>57</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1004,22 +1074,22 @@
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="20" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1033,22 +1103,22 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="20" t="s">
         <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1062,22 +1132,22 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="20" t="s">
         <v>72</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -1091,22 +1161,22 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="20" t="s">
         <v>77</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1121,6 +1191,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="67550563-50c1-4715-81a9-f9e90602c363" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="968ddad5-7c4a-485d-8989-9ee9232da9cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010FD44FF25C3E14DA740240D082FF707" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="495513b5e4063d293a62700ac1a7ddb2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="968ddad5-7c4a-485d-8989-9ee9232da9cb" xmlns:ns3="67550563-50c1-4715-81a9-f9e90602c363" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b7ef0a4a6b5a71311198de0ae39355b" ns2:_="" ns3:_="">
     <xsd:import namespace="968ddad5-7c4a-485d-8989-9ee9232da9cb"/>
@@ -1337,27 +1427,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E39D08-F8D3-4BA2-8519-5ED509F1D641}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="67550563-50c1-4715-81a9-f9e90602c363"/>
+    <ds:schemaRef ds:uri="968ddad5-7c4a-485d-8989-9ee9232da9cb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="67550563-50c1-4715-81a9-f9e90602c363" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="968ddad5-7c4a-485d-8989-9ee9232da9cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60740BD-7023-4020-A677-C8FB4ED5BF00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785B34B8-7467-455C-BFC9-AC285AD6DDB7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1374,23 +1463,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60740BD-7023-4020-A677-C8FB4ED5BF00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E39D08-F8D3-4BA2-8519-5ED509F1D641}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="67550563-50c1-4715-81a9-f9e90602c363"/>
-    <ds:schemaRef ds:uri="968ddad5-7c4a-485d-8989-9ee9232da9cb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>